--- a/output.xlsx
+++ b/output.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,9 +423,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12.65" customWidth="1" min="3" max="3"/>
+    <col width="21.85" customWidth="1" min="3" max="3"/>
     <col width="6.899999999999999" customWidth="1" min="4" max="4"/>
-    <col width="9.199999999999999" customWidth="1" min="5" max="5"/>
+    <col width="10.35" customWidth="1" min="5" max="5"/>
+    <col width="8.049999999999999" customWidth="1" min="7" max="7"/>
+    <col width="10.35" customWidth="1" min="11" max="11"/>
+    <col width="6.899999999999999" customWidth="1" min="12" max="12"/>
+    <col width="10.35" customWidth="1" min="13" max="13"/>
+    <col width="17.25" customWidth="1" min="15" max="15"/>
+    <col width="14.95" customWidth="1" min="19" max="19"/>
+    <col width="18.4" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -438,6 +445,31 @@
           <t>Monday</t>
         </is>
       </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="W5" s="1" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
     </row>
     <row r="6"/>
     <row r="7">
@@ -446,6 +478,31 @@
           <t>Chest</t>
         </is>
       </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>Shoulder</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>Chest &amp; Triceps</t>
+        </is>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Back &amp; Biceps</t>
+        </is>
+      </c>
+      <c r="W7" s="1" t="inlineStr">
+        <is>
+          <t>Legs &amp; Shoulders</t>
+        </is>
+      </c>
     </row>
     <row r="8"/>
     <row r="9">
@@ -456,12 +513,67 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
+          <t>4 sets</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>8-12 reps</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>Box style</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>4 sets</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>8-12 reps</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Incline Bench Press</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
           <t>3 sets</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>4-8 reps</t>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>4-6 reps</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>Jog</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>3 sets</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>4-6 reps</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="W12" s="1" t="inlineStr">
+        <is>
+          <t>Abs</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -2,11 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,14 +51,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,169 +422,143 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21.85" customWidth="1" min="3" max="3"/>
+    <col width="14.95" customWidth="1" min="3" max="3"/>
     <col width="6.899999999999999" customWidth="1" min="4" max="4"/>
-    <col width="10.35" customWidth="1" min="5" max="5"/>
-    <col width="8.049999999999999" customWidth="1" min="7" max="7"/>
-    <col width="10.35" customWidth="1" min="11" max="11"/>
-    <col width="6.899999999999999" customWidth="1" min="12" max="12"/>
-    <col width="10.35" customWidth="1" min="13" max="13"/>
-    <col width="17.25" customWidth="1" min="15" max="15"/>
-    <col width="14.95" customWidth="1" min="19" max="19"/>
-    <col width="18.4" customWidth="1" min="23" max="23"/>
+    <col width="6.899999999999999" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1"/>
     <row r="2"/>
     <row r="3"/>
-    <row r="4"/>
+    <row r="4">
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
     <row r="5">
-      <c r="C5" s="1" t="inlineStr">
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="S5" s="1" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="W5" s="1" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+    </row>
     <row r="7">
-      <c r="C7" s="1" t="inlineStr">
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>Chest &amp; Triceps</t>
-        </is>
-      </c>
-      <c r="S7" s="1" t="inlineStr">
-        <is>
-          <t>Back &amp; Biceps</t>
-        </is>
-      </c>
-      <c r="W7" s="1" t="inlineStr">
-        <is>
-          <t>Legs &amp; Shoulders</t>
-        </is>
-      </c>
-    </row>
-    <row r="8"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+    </row>
     <row r="9">
-      <c r="C9" s="1" t="inlineStr">
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Bench Press</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>4 sets</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>8-12 reps</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>Box style</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="inlineStr">
-        <is>
-          <t>4 sets</t>
-        </is>
-      </c>
-      <c r="M9" s="1" t="inlineStr">
-        <is>
-          <t>8-12 reps</t>
-        </is>
-      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3 sets</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7 reps</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Incline Bench Press</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Incline Bench</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>3 sets</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>4-6 reps</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>Jog</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>3 sets</t>
-        </is>
-      </c>
-      <c r="M10" s="1" t="inlineStr">
-        <is>
-          <t>4-6 reps</t>
-        </is>
-      </c>
-    </row>
-    <row r="11"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7 reps</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+    </row>
     <row r="12">
-      <c r="W12" s="1" t="inlineStr">
-        <is>
-          <t>Abs</t>
-        </is>
-      </c>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -17,13 +17,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+      <sz val="13"/>
     </font>
   </fonts>
   <fills count="3">
@@ -35,11 +58,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="00FFC000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -47,19 +70,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Headline 1" xfId="1" builtinId="16" hidden="0"/>
+    <cellStyle name="Headline 2" xfId="2" builtinId="17" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -131,6 +188,90 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="C9:E11" headerRowCount="1">
+  <autoFilter ref="C9:E11"/>
+  <tableColumns count="3">
+    <tableColumn id="3" name="Exercises"/>
+    <tableColumn id="4" name="Sets"/>
+    <tableColumn id="5" name="Reps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="G9:I11" headerRowCount="1">
+  <autoFilter ref="G9:I11"/>
+  <tableColumns count="3">
+    <tableColumn id="7" name="Exercises"/>
+    <tableColumn id="8" name="Sets"/>
+    <tableColumn id="9" name="Reps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="K9:M11" headerRowCount="1">
+  <autoFilter ref="K9:M11"/>
+  <tableColumns count="3">
+    <tableColumn id="11" name="Exercises"/>
+    <tableColumn id="12" name="Sets"/>
+    <tableColumn id="13" name="Reps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table3" displayName="Table3" ref="O9:Q11" headerRowCount="1">
+  <autoFilter ref="O9:Q11"/>
+  <tableColumns count="3">
+    <tableColumn id="15" name="Exercises"/>
+    <tableColumn id="16" name="Sets"/>
+    <tableColumn id="17" name="Reps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table4" displayName="Table4" ref="S9:U11" headerRowCount="1">
+  <autoFilter ref="S9:U11"/>
+  <tableColumns count="3">
+    <tableColumn id="19" name="Exercises"/>
+    <tableColumn id="20" name="Sets"/>
+    <tableColumn id="21" name="Reps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table5" displayName="Table5" ref="W9:Y11" headerRowCount="1">
+  <autoFilter ref="W9:Y11"/>
+  <tableColumns count="3">
+    <tableColumn id="23" name="Exercises"/>
+    <tableColumn id="24" name="Sets"/>
+    <tableColumn id="25" name="Reps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table6" displayName="Table6" ref="W19:Y21" headerRowCount="1">
+  <autoFilter ref="W19:Y21"/>
+  <tableColumns count="3">
+    <tableColumn id="23" name="Exercises"/>
+    <tableColumn id="24" name="Sets"/>
+    <tableColumn id="25" name="Reps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,135 +571,385 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.95" customWidth="1" min="3" max="3"/>
-    <col width="6.899999999999999" customWidth="1" min="4" max="4"/>
-    <col width="6.899999999999999" customWidth="1" min="5" max="5"/>
+    <col width="13.75" customWidth="1" min="3" max="3"/>
+    <col width="6.25" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="23.75" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="11.25" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="11.25" customWidth="1" min="15" max="15"/>
+    <col width="18.75" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="11.25" customWidth="1" min="19" max="19"/>
+    <col width="16.25" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="11.25" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1"/>
     <row r="2"/>
     <row r="3"/>
-    <row r="4">
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="W5" s="1" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="n"/>
+      <c r="Y5" s="2" t="n"/>
     </row>
-    <row r="5">
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
+    <row r="6"/>
+    <row r="7">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>Shoulder</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>Chest &amp; Triceps</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>Back &amp; Biceps</t>
+        </is>
+      </c>
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
+        <is>
+          <t>Legs &amp; Shoulders</t>
+        </is>
+      </c>
     </row>
-    <row r="6">
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
-      <c r="G6" s="1" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
-      <c r="G8" s="1" t="n"/>
-    </row>
+    <row r="8"/>
     <row r="9">
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Bench Press</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3 sets</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>7 reps</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n"/>
-      <c r="G9" s="1" t="n"/>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Incline Bench</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3 sets</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7 reps</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="n"/>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>Bench Press</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>Incline Bench Press</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>Box style</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="O10" s="6" t="inlineStr">
+        <is>
+          <t>Jog2</t>
+        </is>
+      </c>
+      <c r="P10" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q10" s="6" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>Jog3</t>
+        </is>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U10" s="6" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="W10" s="6" t="inlineStr">
+        <is>
+          <t>Jog4</t>
+        </is>
+      </c>
+      <c r="X10" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y10" s="6" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
     </row>
-    <row r="11">
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17">
+      <c r="W17" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="X17" s="4" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
     </row>
-    <row r="12">
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="n"/>
-      <c r="G12" s="1" t="n"/>
+    <row r="18"/>
+    <row r="19">
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="Y19" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
     </row>
-    <row r="13">
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n"/>
-      <c r="G13" s="1" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
-      <c r="D14" s="1" t="n"/>
-      <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="n"/>
-      <c r="G14" s="1" t="n"/>
+    <row r="20">
+      <c r="W20" s="6" t="inlineStr">
+        <is>
+          <t>Jog5</t>
+        </is>
+      </c>
+      <c r="X20" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y20" s="6" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="7">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -45,7 +45,8 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00FFFFFF"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="13"/>
     </font>
   </fonts>
@@ -191,84 +192,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="C9:E11" headerRowCount="1">
-  <autoFilter ref="C9:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="C9:E12" headerRowCount="0">
   <tableColumns count="3">
-    <tableColumn id="3" name="Exercises"/>
-    <tableColumn id="4" name="Sets"/>
-    <tableColumn id="5" name="Reps"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="G9:I11" headerRowCount="1">
-  <autoFilter ref="G9:I11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C19:E22" headerRowCount="0">
   <tableColumns count="3">
-    <tableColumn id="7" name="Exercises"/>
-    <tableColumn id="8" name="Sets"/>
-    <tableColumn id="9" name="Reps"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="K9:M11" headerRowCount="1">
-  <autoFilter ref="K9:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="G9:I11" headerRowCount="0">
   <tableColumns count="3">
-    <tableColumn id="11" name="Exercises"/>
-    <tableColumn id="12" name="Sets"/>
-    <tableColumn id="13" name="Reps"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table3" displayName="Table3" ref="O9:Q11" headerRowCount="1">
-  <autoFilter ref="O9:Q11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table3" displayName="Table3" ref="K9:M11" headerRowCount="0">
   <tableColumns count="3">
-    <tableColumn id="15" name="Exercises"/>
-    <tableColumn id="16" name="Sets"/>
-    <tableColumn id="17" name="Reps"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table4" displayName="Table4" ref="S9:U11" headerRowCount="1">
-  <autoFilter ref="S9:U11"/>
-  <tableColumns count="3">
-    <tableColumn id="19" name="Exercises"/>
-    <tableColumn id="20" name="Sets"/>
-    <tableColumn id="21" name="Reps"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table5" displayName="Table5" ref="W9:Y11" headerRowCount="1">
-  <autoFilter ref="W9:Y11"/>
-  <tableColumns count="3">
-    <tableColumn id="23" name="Exercises"/>
-    <tableColumn id="24" name="Sets"/>
-    <tableColumn id="25" name="Reps"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table6" displayName="Table6" ref="W19:Y21" headerRowCount="1">
-  <autoFilter ref="W19:Y21"/>
-  <tableColumns count="3">
-    <tableColumn id="23" name="Exercises"/>
-    <tableColumn id="24" name="Sets"/>
-    <tableColumn id="25" name="Reps"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -563,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,24 +532,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.75" customWidth="1" min="3" max="3"/>
-    <col width="6.25" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="23.75" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
-    <col width="11.25" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="11.25" customWidth="1" min="15" max="15"/>
-    <col width="18.75" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
-    <col width="11.25" customWidth="1" min="19" max="19"/>
-    <col width="16.25" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="11.25" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="30.4" customWidth="1" min="3" max="3"/>
+    <col width="11.2" customWidth="1" min="4" max="4"/>
+    <col width="6.4" customWidth="1" min="5" max="5"/>
+    <col width="14.4" customWidth="1" min="7" max="7"/>
+    <col width="6.4" customWidth="1" min="8" max="8"/>
+    <col width="6.4" customWidth="1" min="9" max="9"/>
+    <col width="14.4" customWidth="1" min="11" max="11"/>
+    <col width="9.600000000000001" customWidth="1" min="12" max="12"/>
+    <col width="6.4" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -605,39 +557,18 @@
       <c r="E5" s="2" t="n"/>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="n"/>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="S5" s="1" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-      <c r="W5" s="1" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="n"/>
-      <c r="Y5" s="2" t="n"/>
     </row>
     <row r="6"/>
     <row r="7">
@@ -658,7 +589,7 @@
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Legs</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
@@ -668,37 +599,7 @@
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t>Workout:</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Chest &amp; Triceps</t>
-        </is>
-      </c>
-      <c r="S7" s="3" t="inlineStr">
-        <is>
-          <t>Workout:</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Back &amp; Biceps</t>
-        </is>
-      </c>
-      <c r="W7" s="3" t="inlineStr">
-        <is>
-          <t>Workout:</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Legs &amp; Shoulders</t>
+          <t>asdasd</t>
         </is>
       </c>
     </row>
@@ -749,51 +650,6 @@
           <t>Reps</t>
         </is>
       </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>Exercises</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>Sets</t>
-        </is>
-      </c>
-      <c r="Q9" s="5" t="inlineStr">
-        <is>
-          <t>Reps</t>
-        </is>
-      </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>Exercises</t>
-        </is>
-      </c>
-      <c r="T9" s="5" t="inlineStr">
-        <is>
-          <t>Sets</t>
-        </is>
-      </c>
-      <c r="U9" s="5" t="inlineStr">
-        <is>
-          <t>Reps</t>
-        </is>
-      </c>
-      <c r="W9" s="5" t="inlineStr">
-        <is>
-          <t>Exercises</t>
-        </is>
-      </c>
-      <c r="X9" s="5" t="inlineStr">
-        <is>
-          <t>Sets</t>
-        </is>
-      </c>
-      <c r="Y9" s="5" t="inlineStr">
-        <is>
-          <t>Reps</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="C10" s="6" t="inlineStr">
@@ -803,153 +659,121 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>Squat</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>8-12</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="M10" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>Incline Bench Press</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="K10" s="6" t="inlineStr">
-        <is>
-          <t>Box style</t>
-        </is>
-      </c>
-      <c r="L10" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M10" s="6" t="inlineStr">
-        <is>
-          <t>8-12</t>
-        </is>
-      </c>
-      <c r="O10" s="6" t="inlineStr">
-        <is>
-          <t>Jog2</t>
-        </is>
-      </c>
-      <c r="P10" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q10" s="6" t="inlineStr">
-        <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="S10" s="6" t="inlineStr">
-        <is>
-          <t>Jog3</t>
-        </is>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U10" s="6" t="inlineStr">
-        <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="W10" s="6" t="inlineStr">
-        <is>
-          <t>Jog4</t>
-        </is>
-      </c>
-      <c r="X10" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y10" s="6" t="inlineStr">
-        <is>
-          <t>4-6</t>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>5-7</t>
         </is>
       </c>
     </row>
-    <row r="11"/>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
     <row r="16"/>
     <row r="17">
-      <c r="W17" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Workout:</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
-        <is>
-          <t>Abs</t>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Triceps</t>
         </is>
       </c>
     </row>
     <row r="18"/>
     <row r="19">
-      <c r="W19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Exercises</t>
         </is>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Sets</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Reps</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="W20" s="6" t="inlineStr">
-        <is>
-          <t>Jog5</t>
-        </is>
-      </c>
-      <c r="X20" s="6" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>Overhead Extension</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y20" s="6" t="inlineStr">
-        <is>
-          <t>4-6</t>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="7">
+  <tableParts count="4">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="C9:E12" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="C9:E13" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="3" name="Column3"/>
     <tableColumn id="4" name="Column4"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C19:E22" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C19:E23" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="3" name="Column3"/>
     <tableColumn id="4" name="Column4"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="G9:I11" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="G9:I13" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
@@ -225,7 +225,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table3" displayName="Table3" ref="K9:M11" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table3" displayName="Table3" ref="G19:I23" headerRowCount="0">
+  <tableColumns count="3">
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table4" displayName="Table4" ref="K9:M13" headerRowCount="0">
+  <tableColumns count="3">
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table5" displayName="Table5" ref="K19:M23" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="11" name="Column11"/>
     <tableColumn id="12" name="Column12"/>
@@ -524,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,15 +554,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30.4" customWidth="1" min="3" max="3"/>
+    <col width="41.6" customWidth="1" min="3" max="3"/>
     <col width="11.2" customWidth="1" min="4" max="4"/>
-    <col width="6.4" customWidth="1" min="5" max="5"/>
-    <col width="14.4" customWidth="1" min="7" max="7"/>
-    <col width="6.4" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="20.8" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
     <col width="6.4" customWidth="1" min="9" max="9"/>
-    <col width="14.4" customWidth="1" min="11" max="11"/>
-    <col width="9.600000000000001" customWidth="1" min="12" max="12"/>
-    <col width="6.4" customWidth="1" min="13" max="13"/>
+    <col width="35.2" customWidth="1" min="11" max="11"/>
+    <col width="14.4" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -557,14 +579,14 @@
       <c r="E5" s="2" t="n"/>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="L5" s="2" t="n"/>
@@ -589,17 +611,17 @@
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
           <t>Legs</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>Workout:</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>asdasd</t>
         </is>
       </c>
     </row>
@@ -664,37 +686,37 @@
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
+          <t>Seated Row</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
           <t>Squat</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K10" s="6" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6-10</t>
         </is>
       </c>
     </row>
@@ -711,11 +733,87 @@
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>Lat Pulldowns</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="K11" s="6" t="inlineStr">
+        <is>
+          <t>Leg Extension</t>
+        </is>
+      </c>
+      <c r="L11" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="inlineStr">
+        <is>
+          <t>10-14</t>
         </is>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12">
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>Pec Deck</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>Bent-over row</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="K12" s="6" t="inlineStr">
+        <is>
+          <t>Leg Curl</t>
+        </is>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+    </row>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
@@ -731,6 +829,26 @@
           <t>Triceps</t>
         </is>
       </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>Biceps</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>Shoulders</t>
+        </is>
+      </c>
     </row>
     <row r="18"/>
     <row r="19">
@@ -749,11 +867,41 @@
           <t>Reps</t>
         </is>
       </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="M19" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>Overhead Extension</t>
+          <t>Overhead Dumbell Extension</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr">
@@ -762,6 +910,130 @@
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>Dumbell Curl</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>Lateral Raises</t>
+        </is>
+      </c>
+      <c r="L20" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M20" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>Close-grip Bench Press</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>6-12</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>Preacher Curl</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="K21" s="6" t="inlineStr">
+        <is>
+          <t>Dumbell Shoulder Press</t>
+        </is>
+      </c>
+      <c r="L21" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M21" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>Tricep Pushdown</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>Hammer Curls</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" s="6" t="inlineStr">
+        <is>
+          <t>8-12</t>
+        </is>
+      </c>
+      <c r="K22" s="6" t="inlineStr">
+        <is>
+          <t>Frontal Raises</t>
+        </is>
+      </c>
+      <c r="L22" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M22" s="6" t="inlineStr">
         <is>
           <t>8-12</t>
         </is>
@@ -769,11 +1041,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="4">
+  <tableParts count="6">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -203,18 +203,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C19:E23" headerRowCount="0">
-  <tableColumns count="3">
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="G9:I13" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="G9:I13" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
@@ -224,19 +213,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table3" displayName="Table3" ref="G19:I23" headerRowCount="0">
-  <tableColumns count="3">
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table4" displayName="Table4" ref="K9:M13" headerRowCount="0">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="K9:M12" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="11" name="Column11"/>
     <tableColumn id="12" name="Column12"/>
@@ -246,12 +224,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table5" displayName="Table5" ref="K19:M23" headerRowCount="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table3" displayName="Table3" ref="O9:Q11" headerRowCount="0">
   <tableColumns count="3">
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="17" name="Column17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -546,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,15 +532,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="41.6" customWidth="1" min="3" max="3"/>
-    <col width="11.2" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="20.8" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="30.4" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="6.4" customWidth="1" min="5" max="5"/>
+    <col width="25.6" customWidth="1" min="7" max="7"/>
+    <col width="6.4" customWidth="1" min="8" max="8"/>
     <col width="6.4" customWidth="1" min="9" max="9"/>
-    <col width="35.2" customWidth="1" min="11" max="11"/>
-    <col width="14.4" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="14.4" customWidth="1" min="11" max="11"/>
+    <col width="6.4" customWidth="1" min="12" max="12"/>
+    <col width="6.4" customWidth="1" min="13" max="13"/>
+    <col width="17.6" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="6.4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -591,6 +572,13 @@
       </c>
       <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="n"/>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6"/>
     <row r="7">
@@ -624,6 +612,16 @@
           <t>Legs</t>
         </is>
       </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>Workout:</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
     </row>
     <row r="8"/>
     <row r="9">
@@ -672,6 +670,21 @@
           <t>Reps</t>
         </is>
       </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="C10" s="6" t="inlineStr">
@@ -686,7 +699,7 @@
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
@@ -716,7 +729,22 @@
       </c>
       <c r="M10" s="6" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="O10" s="6" t="inlineStr">
+        <is>
+          <t>Bench Press</t>
+        </is>
+      </c>
+      <c r="P10" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q10" s="6" t="inlineStr">
+        <is>
+          <t>5-8</t>
         </is>
       </c>
     </row>
@@ -733,12 +761,12 @@
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>Lat Pulldowns</t>
+          <t>Lat Pulldown</t>
         </is>
       </c>
       <c r="H11" s="6" t="inlineStr">
@@ -753,7 +781,7 @@
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>Leg Extension</t>
+          <t>Deadlift</t>
         </is>
       </c>
       <c r="L11" s="6" t="inlineStr">
@@ -763,7 +791,7 @@
       </c>
       <c r="M11" s="6" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>2-6</t>
         </is>
       </c>
     </row>
@@ -780,12 +808,12 @@
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
-          <t>8-12</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>Bent-over row</t>
+          <t>Bent Barbell Row</t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">
@@ -794,246 +822,6 @@
         </is>
       </c>
       <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>8-12</t>
-        </is>
-      </c>
-      <c r="K12" s="6" t="inlineStr">
-        <is>
-          <t>Leg Curl</t>
-        </is>
-      </c>
-      <c r="L12" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M12" s="6" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17">
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Workout:</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Triceps</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>Workout:</t>
-        </is>
-      </c>
-      <c r="H17" s="4" t="inlineStr">
-        <is>
-          <t>Biceps</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>Workout:</t>
-        </is>
-      </c>
-      <c r="L17" s="4" t="inlineStr">
-        <is>
-          <t>Shoulders</t>
-        </is>
-      </c>
-    </row>
-    <row r="18"/>
-    <row r="19">
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>Exercises</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Sets</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>Reps</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>Exercises</t>
-        </is>
-      </c>
-      <c r="H19" s="5" t="inlineStr">
-        <is>
-          <t>Sets</t>
-        </is>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>Reps</t>
-        </is>
-      </c>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>Exercises</t>
-        </is>
-      </c>
-      <c r="L19" s="5" t="inlineStr">
-        <is>
-          <t>Sets</t>
-        </is>
-      </c>
-      <c r="M19" s="5" t="inlineStr">
-        <is>
-          <t>Reps</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>Overhead Dumbell Extension</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>8-12</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr">
-        <is>
-          <t>Dumbell Curl</t>
-        </is>
-      </c>
-      <c r="H20" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I20" s="6" t="inlineStr">
-        <is>
-          <t>8-12</t>
-        </is>
-      </c>
-      <c r="K20" s="6" t="inlineStr">
-        <is>
-          <t>Lateral Raises</t>
-        </is>
-      </c>
-      <c r="L20" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M20" s="6" t="inlineStr">
-        <is>
-          <t>8-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>Close-grip Bench Press</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>6-12</t>
-        </is>
-      </c>
-      <c r="G21" s="6" t="inlineStr">
-        <is>
-          <t>Preacher Curl</t>
-        </is>
-      </c>
-      <c r="H21" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>8-12</t>
-        </is>
-      </c>
-      <c r="K21" s="6" t="inlineStr">
-        <is>
-          <t>Dumbell Shoulder Press</t>
-        </is>
-      </c>
-      <c r="L21" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M21" s="6" t="inlineStr">
-        <is>
-          <t>8-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>Tricep Pushdown</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>Hammer Curls</t>
-        </is>
-      </c>
-      <c r="H22" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I22" s="6" t="inlineStr">
-        <is>
-          <t>8-12</t>
-        </is>
-      </c>
-      <c r="K22" s="6" t="inlineStr">
-        <is>
-          <t>Frontal Raises</t>
-        </is>
-      </c>
-      <c r="L22" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M22" s="6" t="inlineStr">
         <is>
           <t>8-12</t>
         </is>
@@ -1041,13 +829,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="6">
+  <tableParts count="4">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>